--- a/project_deliverables.xlsx
+++ b/project_deliverables.xlsx
@@ -17,15 +17,15 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'WB-Procured Items'!$A$1:$J$489</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">equipment_ambulance!$A$1:$G$374</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">civil_works!$A$1:$K$122</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_664CF282_F8DF_4CF4_B263_0CAC0B61ACF4_.wvu.FilterData">status!$A$1:$H$504</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_664CF282_F8DF_4CF4_B263_0CAC0B61ACF4_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_89AC2CA9_722E_495E_A72D_95B93300FBF7_.wvu.FilterData">status!$A$1:$H$504</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_89AC2CA9_722E_495E_A72D_95B93300FBF7_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AD8D84E1_BB2C_4D62_9860_55EE28C95AB5_.wvu.FilterData">status!$A$1:$H$504</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_AD8D84E1_BB2C_4D62_9860_55EE28C95AB5_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_764981C9_4BE7_4FE8_8219_2B4BD7546AE8_.wvu.FilterData">status!$A$1:$H$504</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_764981C9_4BE7_4FE8_8219_2B4BD7546AE8_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{664CF282-F8DF-4CF4-B263-0CAC0B61ACF4}" name="Equipments (non PCR) and PPE"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{89AC2CA9-722E-495E-A72D-95B93300FBF7}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{764981C9-4BE7-4FE8-8219-2B4BD7546AE8}" name="Equipments (non PCR) and PPE"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AD8D84E1-BB2C-4D62-9860-55EE28C95AB5}" name="Filter 1"/>
   </customWorkbookViews>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
@@ -20149,7 +20149,7 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{664CF282-F8DF-4CF4-B263-0CAC0B61ACF4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{764981C9-4BE7-4FE8-8219-2B4BD7546AE8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$504">
         <filterColumn colId="5">
           <filters>
@@ -20167,7 +20167,7 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{89AC2CA9-722E-495E-A72D-95B93300FBF7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AD8D84E1-BB2C-4D62-9860-55EE28C95AB5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$504"/>
     </customSheetView>
   </customSheetViews>
@@ -36768,10 +36768,10 @@
   </sheetData>
   <autoFilter ref="$A$1:$J$489"/>
   <customSheetViews>
-    <customSheetView guid="{89AC2CA9-722E-495E-A72D-95B93300FBF7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AD8D84E1-BB2C-4D62-9860-55EE28C95AB5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$489"/>
     </customSheetView>
-    <customSheetView guid="{664CF282-F8DF-4CF4-B263-0CAC0B61ACF4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{764981C9-4BE7-4FE8-8219-2B4BD7546AE8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$489">
         <filterColumn colId="5">
           <filters>

--- a/project_deliverables.xlsx
+++ b/project_deliverables.xlsx
@@ -17,15 +17,15 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'WB-Procured Items'!$A$1:$J$489</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">equipment_ambulance!$A$1:$G$374</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">civil_works!$A$1:$K$122</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_72646060_1886_4038_B8CB_A4609B01094D_.wvu.FilterData">status!$A$1:$H$504</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_72646060_1886_4038_B8CB_A4609B01094D_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D4B52EEF_3631_4D9A_8F14_3F4A39F6AA20_.wvu.FilterData">status!$A$1:$H$504</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_D4B52EEF_3631_4D9A_8F14_3F4A39F6AA20_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DEB25607_A3D5_4372_A09D_8B541AE620CF_.wvu.FilterData">status!$A$1:$H$504</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_DEB25607_A3D5_4372_A09D_8B541AE620CF_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8B354A7B_AF47_43EF_A1A4_52B8976B8491_.wvu.FilterData">status!$A$1:$H$504</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_8B354A7B_AF47_43EF_A1A4_52B8976B8491_.wvu.FilterData">'WB-Procured Items'!$A$1:$H$489</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D4B52EEF-3631-4D9A-8F14-3F4A39F6AA20}" name="Equipments (non PCR) and PPE"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{72646060-1886-4038-B8CB-A4609B01094D}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8B354A7B-AF47-43EF-A1A4-52B8976B8491}" name="Equipments (non PCR) and PPE"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DEB25607-A3D5-4372-A09D-8B541AE620CF}" name="Filter 1"/>
   </customWorkbookViews>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
@@ -1578,20 +1578,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1608,6 +1611,15 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1685,43 +1697,43 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3003,12 +3015,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="37.14"/>
-    <col customWidth="1" min="4" max="4" width="43.29"/>
-    <col customWidth="1" min="6" max="6" width="50.86"/>
-    <col customWidth="1" min="8" max="8" width="37.57"/>
+    <col customWidth="1" min="3" max="3" width="32.5"/>
+    <col customWidth="1" min="4" max="4" width="37.88"/>
+    <col customWidth="1" min="6" max="6" width="44.5"/>
+    <col customWidth="1" min="8" max="8" width="32.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20149,7 +20161,7 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{D4B52EEF-3631-4D9A-8F14-3F4A39F6AA20}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8B354A7B-AF47-43EF-A1A4-52B8976B8491}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$504">
         <filterColumn colId="5">
           <filters>
@@ -20167,7 +20179,7 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{72646060-1886-4038-B8CB-A4609B01094D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DEB25607-A3D5-4372-A09D-8B541AE620CF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$504"/>
     </customSheetView>
   </customSheetViews>
@@ -20189,12 +20201,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="37.14"/>
-    <col customWidth="1" min="4" max="4" width="43.29"/>
-    <col customWidth="1" min="6" max="6" width="50.86"/>
-    <col customWidth="1" min="8" max="8" width="37.57"/>
+    <col customWidth="1" min="3" max="3" width="32.5"/>
+    <col customWidth="1" min="4" max="4" width="37.88"/>
+    <col customWidth="1" min="6" max="6" width="44.5"/>
+    <col customWidth="1" min="8" max="8" width="32.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -36768,10 +36780,10 @@
   </sheetData>
   <autoFilter ref="$A$1:$J$489"/>
   <customSheetViews>
-    <customSheetView guid="{72646060-1886-4038-B8CB-A4609B01094D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DEB25607-A3D5-4372-A09D-8B541AE620CF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$489"/>
     </customSheetView>
-    <customSheetView guid="{D4B52EEF-3631-4D9A-8F14-3F4A39F6AA20}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8B354A7B-AF47-43EF-A1A4-52B8976B8491}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$489">
         <filterColumn colId="5">
           <filters>
@@ -36807,10 +36819,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="71.0"/>
-    <col customWidth="1" min="5" max="5" width="42.29"/>
+    <col customWidth="1" min="2" max="2" width="62.13"/>
+    <col customWidth="1" min="5" max="5" width="37.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -45438,9 +45450,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.71"/>
+    <col customWidth="1" min="1" max="1" width="40.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -45906,13 +45918,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="31.29"/>
-    <col customWidth="1" min="5" max="6" width="33.14"/>
-    <col customWidth="1" min="7" max="7" width="13.0"/>
-    <col customWidth="1" min="9" max="9" width="100.86"/>
-    <col customWidth="1" min="13" max="13" width="73.14"/>
+    <col customWidth="1" min="4" max="4" width="27.38"/>
+    <col customWidth="1" min="5" max="6" width="29.0"/>
+    <col customWidth="1" min="7" max="7" width="11.38"/>
+    <col customWidth="1" min="9" max="9" width="88.25"/>
+    <col customWidth="1" min="13" max="13" width="64.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -49954,12 +49966,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.43"/>
-    <col customWidth="1" min="2" max="2" width="29.29"/>
-    <col customWidth="1" min="5" max="5" width="22.43"/>
-    <col customWidth="1" min="6" max="6" width="16.14"/>
+    <col customWidth="1" min="1" max="1" width="49.38"/>
+    <col customWidth="1" min="2" max="2" width="25.63"/>
+    <col customWidth="1" min="5" max="5" width="19.63"/>
+    <col customWidth="1" min="6" max="6" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -50004,7 +50016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
